--- a/Holiday__Calender.xlsx
+++ b/Holiday__Calender.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AC5AE-D21A-444A-A7D1-C6AE439A76A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784B9D0-C49F-4DE7-A6D1-8DE809D192E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,11 +1745,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2100"/>
+  <dimension ref="A1:Q2099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2084" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2089" sqref="O2089"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2083" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2091" sqref="O2091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -93766,13 +93766,13 @@
         <v>64</v>
       </c>
       <c r="M2091" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N2091" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O2091" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q2091" t="s">
         <v>28</v>
@@ -94129,10 +94129,6 @@
       <c r="Q2099" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2100" spans="1:17">
-      <c r="M2100" s="1"/>
-      <c r="O2100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday__Calender.xlsx
+++ b/Holiday__Calender.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784B9D0-C49F-4DE7-A6D1-8DE809D192E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CBDEDE-728C-44E9-B73D-7B73D8479EEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,9 +1747,9 @@
   </sheetPr>
   <dimension ref="A1:Q2099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2083" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2091" sqref="O2091"/>
+      <selection pane="bottomLeft" activeCell="L2090" sqref="L2090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -93763,7 +93763,7 @@
         <v>59</v>
       </c>
       <c r="L2091" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M2091" s="1">
         <v>13</v>

--- a/Holiday__Calender.xlsx
+++ b/Holiday__Calender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CBDEDE-728C-44E9-B73D-7B73D8479EEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81587466-4CCD-4549-AF21-B18C84E6292F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25192" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25194" uniqueCount="454">
   <si>
     <t>HOLIDAY_ID</t>
   </si>
@@ -1385,6 +1385,9 @@
  ) "ELKP_HOLIDAY" WHERE COUNTRY_CD = 'US'
  ) sub1 order by 8 asc</t>
   </si>
+  <si>
+    <t>AU</t>
+  </si>
 </sst>
 </file>
 
@@ -1747,9 +1750,9 @@
   </sheetPr>
   <dimension ref="A1:Q2099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2083" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2090" sqref="L2090"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2090" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2091" sqref="G2091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -93533,6 +93536,9 @@
       <c r="E2086" t="s">
         <v>175</v>
       </c>
+      <c r="G2086" t="s">
+        <v>19</v>
+      </c>
       <c r="H2086" t="s">
         <v>450</v>
       </c>
@@ -93618,6 +93624,9 @@
       <c r="E2088" t="s">
         <v>175</v>
       </c>
+      <c r="G2088" t="s">
+        <v>19</v>
+      </c>
       <c r="H2088" t="s">
         <v>450</v>
       </c>
@@ -93748,7 +93757,7 @@
         <v>20</v>
       </c>
       <c r="G2091" t="s">
-        <v>19</v>
+        <v>453</v>
       </c>
       <c r="H2091" t="s">
         <v>448</v>
@@ -93766,7 +93775,7 @@
         <v>26</v>
       </c>
       <c r="M2091" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2091" t="s">
         <v>45</v>

--- a/Holiday__Calender.xlsx
+++ b/Holiday__Calender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81587466-4CCD-4549-AF21-B18C84E6292F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84EA7D8-8057-4233-878E-8BA86755E7DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25194" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25194" uniqueCount="453">
   <si>
     <t>HOLIDAY_ID</t>
   </si>
@@ -1385,9 +1385,6 @@
  ) "ELKP_HOLIDAY" WHERE COUNTRY_CD = 'US'
  ) sub1 order by 8 asc</t>
   </si>
-  <si>
-    <t>AU</t>
-  </si>
 </sst>
 </file>
 
@@ -1750,9 +1747,9 @@
   </sheetPr>
   <dimension ref="A1:Q2099"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2090" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2091" sqref="G2091"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2083" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2092" sqref="L2092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -93757,7 +93754,7 @@
         <v>20</v>
       </c>
       <c r="G2091" t="s">
-        <v>453</v>
+        <v>235</v>
       </c>
       <c r="H2091" t="s">
         <v>448</v>
